--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1892346.389112242</v>
+        <v>-1712115.652077168</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14364970.54561392</v>
+        <v>12258327.79560123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809163</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11808009.23818091</v>
+        <v>11853954.71140531</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>237.020019435259</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>180.7870544441307</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>24.76484596498758</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>254.5059210510484</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>256.8449069007427</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>237.4315932770774</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>256.8449069007427</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>256.8449069007427</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.39546309134631</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>9.92314427332683</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1035,7 +1035,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,19 +1108,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>256.8449069007427</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>256.8449069007427</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>27.1660224168026</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>316.9910888936832</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>81.48697791125832</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>43.10482199277148</v>
       </c>
       <c r="F10" t="n">
-        <v>42.09444105482045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>75.58827853203815</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1436,7 +1436,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249408</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429414</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.58543740429828</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>152.1888284666957</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0967589369122</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V14" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.5897076523054</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8715224160354</v>
+        <v>78.16614128474573</v>
       </c>
       <c r="F16" t="n">
-        <v>134.4685551105455</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.0962812044867</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.89362580705895</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>152.1888284666948</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.64901981295137</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8715224160354</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>128.9197986360705</v>
+        <v>103.7081049964499</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6837044342875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>63.09628120448738</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.89362580705895</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>241.7080026420591</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4292784165725</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>204.4636562160133</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>152.1888284666957</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>128.8715224160354</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.09628120448716</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.89362580705895</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>132.7590956334168</v>
+        <v>165.4045189203237</v>
       </c>
       <c r="T22" t="n">
-        <v>205.2313529237194</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>204.4636562160133</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.4047392545157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.4685551105455</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>106.6837044342875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>63.09628120448716</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.89362580705895</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>132.7590956334168</v>
+        <v>54.43380360623924</v>
       </c>
       <c r="T25" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>204.4636562160133</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>134.5782361172335</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6837044342875</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>63.0962812044867</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>205.2313529237194</v>
+        <v>208.4603861477011</v>
       </c>
       <c r="U28" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>236.4292784165725</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2953,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429457</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>266.0411664093899</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3013,7 +3013,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3199,7 +3199,7 @@
         <v>134.4685551105455</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360704</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H34" t="n">
         <v>106.6837044342875</v>
@@ -3235,7 +3235,7 @@
         <v>10.89362580705895</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334167</v>
       </c>
       <c r="T34" t="n">
         <v>205.2313529237194</v>
@@ -3281,7 +3281,7 @@
         <v>364.6210704138062</v>
       </c>
       <c r="H35" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680667</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>134.4685551105455</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360703</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
@@ -3791,7 +3791,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T41" t="n">
-        <v>183.0417138731738</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U41" t="n">
         <v>220.0967589369122</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>676.7240737291129</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>653.8637477828171</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>634.6115310082214</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>612.674995196483</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>373.2608341507669</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>372.9621757806195</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>75.09379725465439</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="N2" t="n">
-        <v>2.249304810625575</v>
+        <v>537.6338852249298</v>
       </c>
       <c r="O2" t="n">
-        <v>28.95979943680427</v>
+        <v>938.7675262933899</v>
       </c>
       <c r="P2" t="n">
-        <v>56.79494646829576</v>
+        <v>1436.204485520194</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>1892.289965024377</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1905.47900577942</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1684.553434824053</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1501.94024851685</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1501.94024851685</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1105.548898817197</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>693.8288999849445</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>692.5320339802389</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>607.3204170295809</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>489.8145135470857</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>385.9745550623707</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>281.2726213353079</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>187.626791018212</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>93.57301923581601</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="L3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="M3" t="n">
-        <v>2.249304810625575</v>
+        <v>307.8458511775445</v>
       </c>
       <c r="N3" t="n">
-        <v>28.95979943680427</v>
+        <v>307.8458511775445</v>
       </c>
       <c r="O3" t="n">
-        <v>28.95979943680427</v>
+        <v>805.2828104043488</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1766.865246493932</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1848.884556578636</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.56030913989</v>
       </c>
       <c r="T3" t="n">
-        <v>87.45024460704886</v>
+        <v>1625.680373437568</v>
       </c>
       <c r="U3" t="n">
-        <v>87.45024460704886</v>
+        <v>1440.912177357205</v>
       </c>
       <c r="V3" t="n">
-        <v>59.04993134157444</v>
+        <v>1235.939038496471</v>
       </c>
       <c r="W3" t="n">
-        <v>30.6496180761</v>
+        <v>1039.417661329688</v>
       </c>
       <c r="X3" t="n">
-        <v>30.6496180761</v>
+        <v>875.9403150963512</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>736.2474264496436</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>541.6944678395853</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>369.7219047185013</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>206.405131845272</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812559</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>113.4522019231462</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>468.141523217567</v>
       </c>
       <c r="M4" t="n">
-        <v>2.249304810625575</v>
+        <v>859.3273181878178</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>1236.818829063854</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>1592.246957743617</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>1882.846169665518</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>1839.711252425415</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>1596.371904651315</v>
       </c>
       <c r="U4" t="n">
-        <v>27.26430073485544</v>
+        <v>1316.187456151619</v>
       </c>
       <c r="V4" t="n">
-        <v>27.26430073485544</v>
+        <v>1059.110768221267</v>
       </c>
       <c r="W4" t="n">
-        <v>27.26430073485544</v>
+        <v>784.2583643937802</v>
       </c>
       <c r="X4" t="n">
-        <v>27.26430073485544</v>
+        <v>541.6944678395853</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>541.6944678395853</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.4818713130339</v>
+        <v>808.398248848074</v>
       </c>
       <c r="C5" t="n">
-        <v>320.6215453667381</v>
+        <v>785.5379229017782</v>
       </c>
       <c r="D5" t="n">
-        <v>301.3693285921425</v>
+        <v>362.2453020867785</v>
       </c>
       <c r="E5" t="n">
-        <v>41.93002869240242</v>
+        <v>340.3087662750401</v>
       </c>
       <c r="F5" t="n">
-        <v>20.84625092220672</v>
+        <v>319.2249885048444</v>
       </c>
       <c r="G5" t="n">
-        <v>20.54759255205941</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>20.54759255205941</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>20.54759255205941</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>146.9939192258624</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>401.2703770575977</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>655.5468348893329</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>909.8232927210681</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1027.379627602971</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>923.0123334761111</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>923.0123334761111</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>923.0123334761111</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>663.573033576371</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>663.573033576371</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>404.1337336766309</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.2898315641599</v>
+        <v>1228.246613139604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.1934228691553</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>114.1934228691553</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>114.1934228691553</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>114.1934228691553</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>20.54759255205941</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>20.54759255205941</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>182.5309440230619</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8074018547971</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>691.0838596865324</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>945.3603175182676</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1027.379627602971</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>946.0553801642252</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>936.0320021103597</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>751.2638060299964</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>546.2906671692627</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>546.2906671692627</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>382.8133209359256</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>243.120432289218</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.54759255205941</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C7" t="n">
-        <v>20.54759255205941</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D7" t="n">
-        <v>20.54759255205941</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E7" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>20.54759255205941</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>20.54759255205941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>20.54759255205941</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>20.54759255205941</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>137.5501238670031</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>391.8265816987383</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>646.1030395304736</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>900.3794973622088</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1027.379627602971</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>980.3410142901438</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>810.2059668092786</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>566.8666190351786</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>307.4273191354385</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>47.9880192356984</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>20.54759255205941</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>20.54759255205941</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.54759255205941</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.774797953253</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665527</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>970.621851191957</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398146</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5611335696188</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2220711590675</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1996.306086715161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.43162988993831</v>
+        <v>494.9200589091692</v>
       </c>
       <c r="C10" t="n">
-        <v>79.43162988993831</v>
+        <v>494.9200589091692</v>
       </c>
       <c r="D10" t="n">
-        <v>79.43162988993831</v>
+        <v>331.6032860359399</v>
       </c>
       <c r="E10" t="n">
-        <v>79.43162988993831</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.43162988993831</v>
+        <v>685.0860276212348</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1750.140962179914</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1323.240232193214</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>899.9476113782146</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>823.5958148812058</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>823.5958148812058</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2567524706545</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>121.3883739446893</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L11" t="n">
-        <v>216.9722308074399</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
-        <v>1221.258332226498</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>2197.509390713199</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3042.654040864011</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3750.933320021939</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>4207.018799526122</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>4220.207840281165</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3999.282269325798</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3740.927359922211</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3383.437945048459</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2987.046595348806</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2575.326596516554</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2169.989326471444</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.6149937196158</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>536.1090902371205</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O12" t="n">
-        <v>975.9727806996322</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P12" t="n">
-        <v>1349.014346321188</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>922.2348917863861</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>782.5420031396785</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.5705682378244</v>
+        <v>326.3817789554967</v>
       </c>
       <c r="C13" t="n">
-        <v>138.5980051167404</v>
+        <v>154.4092158344127</v>
       </c>
       <c r="D13" t="n">
-        <v>86.49150268816049</v>
+        <v>154.4092158344127</v>
       </c>
       <c r="E13" t="n">
-        <v>86.49150268816049</v>
+        <v>154.4092158344127</v>
       </c>
       <c r="F13" t="n">
-        <v>86.49150268816049</v>
+        <v>154.4092158344127</v>
       </c>
       <c r="G13" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>143.9828309123185</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>370.5104321181557</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>725.1997534125765</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1116.385548382827</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1493.877059258863</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1849.305187938626</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2139.904399860527</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2266.904530101288</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2219.865916788462</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2049.730869307597</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1806.391521533496</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1526.207073033801</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.49560564183</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>969.643201814343</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>727.0793052601481</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>500.7365369498901</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2038.420569231548</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1647.554790126301</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1260.297120192756</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>870.3551312220675</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>86.49150268816049</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>216.9722308074399</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>216.9722308074399</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>216.9722308074399</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M14" t="n">
-        <v>1221.258332226498</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>2197.509390713199</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3042.654040864011</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3750.933320021939</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4207.018799526122</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4256.242791162619</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4071.352171088707</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3849.032212566573</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3527.577748574276</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3167.221349756077</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2791.536301805279</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2422.233982641624</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>653.6149937196158</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>536.1090902371205</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>975.9727806996322</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P15" t="n">
-        <v>1692.17049773813</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>922.2348917863861</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.5420031396785</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.4279690422181</v>
+        <v>516.5477476675618</v>
       </c>
       <c r="C16" t="n">
-        <v>781.4903568025883</v>
+        <v>344.5751845464778</v>
       </c>
       <c r="D16" t="n">
-        <v>654.2085348108131</v>
+        <v>181.2584116732485</v>
       </c>
       <c r="E16" t="n">
-        <v>524.0352798451208</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F16" t="n">
-        <v>388.2084565011354</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>257.9864376768217</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>150.2251200664302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>179.3006862712317</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>441.1461428359821</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L16" t="n">
-        <v>831.1533194893161</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M16" t="n">
-        <v>1257.65696981848</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1670.466336053429</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>2061.212320092106</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2538.443710541222</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2404.343613941811</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.039217049165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U16" t="n">
-        <v>1952.889719430924</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V16" t="n">
-        <v>1707.213202920407</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W16" t="n">
-        <v>1468.395749974374</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="X16" t="n">
-        <v>1261.866804301633</v>
+        <v>742.8905159778197</v>
       </c>
       <c r="Y16" t="n">
-        <v>1071.55898687283</v>
+        <v>516.5477476675618</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2038.420569231547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1647.5547901263</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1260.297120192755</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>870.3551312220666</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>86.49150268816049</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>86.49150268816049</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>801.9998106636596</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L17" t="n">
-        <v>1731.624858282936</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>1731.624858282936</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>2707.875916769637</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3042.654040864011</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>3750.933320021939</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4207.018799526122</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4256.242791162619</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4071.352171088707</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3849.032212566573</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3527.577748574277</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3167.221349756078</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2791.536301805279</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2422.233982641624</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>653.6149937196158</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>536.1090902371205</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>975.9727806996322</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.014346321188</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>922.2348917863861</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>782.5420031396785</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.4279690422183</v>
+        <v>1123.982527836873</v>
       </c>
       <c r="C19" t="n">
-        <v>781.4903568025885</v>
+        <v>952.0099647157892</v>
       </c>
       <c r="D19" t="n">
-        <v>654.2085348108134</v>
+        <v>788.6931918425599</v>
       </c>
       <c r="E19" t="n">
-        <v>524.0352798451211</v>
+        <v>622.4849859954135</v>
       </c>
       <c r="F19" t="n">
-        <v>388.2084565011357</v>
+        <v>450.6232117699739</v>
       </c>
       <c r="G19" t="n">
-        <v>257.986437676822</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>150.2251200664306</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>179.3006862712317</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>441.1461428359822</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>831.1533194893163</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1257.656969818481</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1670.46633605343</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2061.212320092106</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2538.443710541222</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.343613941811</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.039217049165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U19" t="n">
-        <v>1952.889719430924</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="V19" t="n">
-        <v>1707.213202920407</v>
+        <v>1540.491264859197</v>
       </c>
       <c r="W19" t="n">
-        <v>1468.395749974374</v>
+        <v>1540.491264859197</v>
       </c>
       <c r="X19" t="n">
-        <v>1261.866804301634</v>
+        <v>1540.491264859197</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.55898687283</v>
+        <v>1314.148496548939</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2038.420569231548</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>1647.554790126301</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1260.297120192756</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>870.3551312220675</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6290418617688</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>348.3249303326715</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>86.49150268816049</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>86.49150268816049</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>86.49150268816049</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>216.9722308074399</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>1221.258332226498</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>2197.509390713199</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3042.654040864011</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3750.933320021939</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4207.018799526122</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4324.575134408024</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4256.242791162619</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4071.352171088707</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>3849.032212566573</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3527.577748574276</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3167.221349756077</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2791.536301805279</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2422.233982641624</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>653.6149937196158</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>536.1090902371205</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>432.2691317524055</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>327.5671980253427</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>233.9213677082469</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>139.8675959258509</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>975.9727806996322</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.014346321188</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1813.159823183967</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1895.17913326867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1813.854885829925</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1671.974950127603</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1487.20675404724</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.233615186506</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1085.712238019723</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>922.2348917863861</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.5420031396785</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.4279690422181</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C22" t="n">
-        <v>781.4903568025884</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D22" t="n">
-        <v>654.2085348108133</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E22" t="n">
-        <v>524.035279845121</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>388.2084565011355</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>257.9864376768218</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>150.2251200664303</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>86.49150268816049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>179.3006862712318</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>441.1461428359821</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>831.1533194893159</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1257.65696981848</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1670.466336053429</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2061.212320092105</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2387.12938737292</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2549.447372972595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2538.443710541222</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2404.343613941811</v>
+        <v>2068.60185586944</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.039217049165</v>
+        <v>2068.60185586944</v>
       </c>
       <c r="U22" t="n">
-        <v>1952.889719430924</v>
+        <v>1788.417407369744</v>
       </c>
       <c r="V22" t="n">
-        <v>1707.213202920407</v>
+        <v>1506.705939977772</v>
       </c>
       <c r="W22" t="n">
-        <v>1468.395749974374</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="X22" t="n">
-        <v>1261.866804301633</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y22" t="n">
-        <v>1071.55898687283</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>806.8031400834319</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>806.8031400834319</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M23" t="n">
-        <v>1461.424803215117</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N23" t="n">
-        <v>2437.675861701818</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O23" t="n">
-        <v>3282.82051185263</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P23" t="n">
-        <v>3991.099791010558</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q23" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>637.6199587024621</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.2312984619905</v>
+        <v>684.0970829842502</v>
       </c>
       <c r="C25" t="n">
-        <v>786.2936862223606</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D25" t="n">
-        <v>659.0118642305855</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E25" t="n">
-        <v>528.8386092648932</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
-        <v>393.0117859209078</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>262.7897670965942</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>155.0284494862027</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>184.1040156910042</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>445.9494722557547</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>835.9566489090889</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1262.460299238253</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1675.269665473202</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2543.247039960994</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2409.146943361583</v>
+        <v>2180.693487499828</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.842546468938</v>
+        <v>1937.354139725728</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.693048850696</v>
+        <v>1657.169691226032</v>
       </c>
       <c r="V25" t="n">
-        <v>1712.016532340179</v>
+        <v>1375.458223834061</v>
       </c>
       <c r="W25" t="n">
-        <v>1473.199079394147</v>
+        <v>1100.605820006574</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.670133721406</v>
+        <v>1100.605820006574</v>
       </c>
       <c r="Y25" t="n">
-        <v>1076.362316292602</v>
+        <v>874.2630516963159</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>91.29483210793288</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>457.138701796059</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>1461.424803215117</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>637.6199587024621</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.2312984619898</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="C28" t="n">
-        <v>786.29368622236</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D28" t="n">
-        <v>659.0118642305848</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E28" t="n">
-        <v>528.8386092648925</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F28" t="n">
-        <v>393.0117859209071</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>262.7897670965936</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>155.0284494862021</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2409.146943361583</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.842546468937</v>
+        <v>1902.014646724252</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.693048850696</v>
+        <v>1621.830198224557</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.016532340179</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="W28" t="n">
-        <v>1473.199079394146</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="X28" t="n">
-        <v>1266.670133721405</v>
+        <v>1097.554834278391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.362316292601</v>
+        <v>871.2120659681327</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,64 +6449,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109899</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.0699265966</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747412</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
         <v>102.3027134058285</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344089</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6619,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6646,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1723.609328813454</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1441.897861421483</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1167.045457593996</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1167.045457593996</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>940.7026892837382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>91.29483210793288</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>457.138701796059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1461.424803215117</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>637.6199587024621</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619905</v>
+        <v>933.2391797598863</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223606</v>
+        <v>797.3015675202564</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305855</v>
+        <v>670.0197455284813</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648932</v>
+        <v>539.846490562789</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209078</v>
+        <v>404.0196672188035</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557547</v>
+        <v>456.9573535536502</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090889</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019302</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815419</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524447</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793285</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>91.29483210793285</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>457.1387017960581</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1461.424803215116</v>
+        <v>2743.345896759131</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701817</v>
+        <v>3719.596955245832</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.820511852629</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010557</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.18527051474</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151239</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793285</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="O36" t="n">
         <v>637.6199587024621</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223604</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305853</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.838609264893</v>
+        <v>528.8386092648931</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209075</v>
+        <v>393.0117859209076</v>
       </c>
       <c r="G37" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210688</v>
       </c>
       <c r="F38" t="n">
         <v>721.4323712815412</v>
@@ -7166,58 +7166,58 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="K38" t="n">
-        <v>453.8982909248284</v>
+        <v>503.7647126634841</v>
       </c>
       <c r="L38" t="n">
-        <v>457.1387017960581</v>
+        <v>1433.389760282761</v>
       </c>
       <c r="M38" t="n">
-        <v>1461.424803215116</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="N38" t="n">
-        <v>2437.675861701817</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151239</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X38" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="O39" t="n">
         <v>637.6199587024621</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
         <v>786.2936862223606</v>
@@ -7315,28 +7315,28 @@
         <v>659.0118642305855</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7409,22 +7409,22 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>457.138701796059</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>457.138701796059</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.424803215117</v>
+        <v>3014.848732523857</v>
       </c>
       <c r="N41" t="n">
-        <v>2437.675861701818</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.82051185263</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="P41" t="n">
         <v>3991.099791010558</v>
@@ -7445,7 +7445,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W41" t="n">
         <v>3407.387820744696</v>
@@ -7500,10 +7500,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>464.3363977294885</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O42" t="n">
-        <v>1353.81767574096</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P42" t="n">
         <v>1353.81767574096</v>
@@ -7567,10 +7567,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910037</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
         <v>835.9566489090881</v>
@@ -7634,13 +7634,13 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793279</v>
       </c>
       <c r="I44" t="n">
         <v>91.29483210793288</v>
@@ -7737,10 +7737,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="N45" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O45" t="n">
-        <v>637.6199587024621</v>
+        <v>980.7761101194045</v>
       </c>
       <c r="P45" t="n">
         <v>1353.81767574096</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
@@ -7804,10 +7804,10 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
         <v>835.9566489090887</v>
@@ -7843,7 +7843,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X46" t="n">
         <v>1266.670133721406</v>
@@ -7988,19 +7988,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>539.7411978110159</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>442.5764553847716</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>540.0369367868012</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>293.4492301885087</v>
       </c>
       <c r="N3" t="n">
-        <v>48.32332581574237</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>525.6334646987922</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>524.2324161813985</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>94.95988265980354</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>165.0031851312168</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O5" t="n">
-        <v>294.2358662567668</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>294.420268710974</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.9695815053407</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>184.9625751539482</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O6" t="n">
-        <v>280.0167966229649</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>278.6157481055714</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>279.5919451897212</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>140.7598149570855</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>277.5938078763431</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>279.3440943991671</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>279.2257075587291</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8462,13 +8462,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>362.1121742943703</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8541,16 +8541,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>381.2527255747682</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8693,7 +8693,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1107577046224</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8781,10 +8781,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P12" t="n">
-        <v>398.5805034488242</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>161.218674757586</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9018,13 +9018,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.9584781332583</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>375.5506806634727</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9255,10 +9255,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P18" t="n">
-        <v>398.5805034488242</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1107577046224</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9492,10 +9492,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>398.5805034488242</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>698.6652660627502</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,7 +9656,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>407.8513047438615</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1027.220259954779</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>407.8513047438615</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10367,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>688.2537378888532</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,13 +10601,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10674,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O36" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>452.4008437802146</v>
       </c>
       <c r="L38" t="n">
-        <v>41.58518472679434</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>405.3038631060479</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>962.4990265400912</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11148,13 +11148,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>398.1526904575372</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11385,13 +11385,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>183.8529205572348</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>346.1288919215829</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402029</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23428,7 +23428,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>113.0089626044119</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>233.0095101531584</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.37998250392924</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>233.0095101531593</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>60.88629501226031</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>233.0095101531584</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.029178085732838</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>113.9998933998173</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>32.44556814865791</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402024</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>11.3414376053089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1022050.923848463</v>
+        <v>1009806.500098592</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1028662.335489989</v>
+        <v>1036519.995492978</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1034575.008063086</v>
+        <v>1036519.995492978</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902227.4282986891</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1012334.022248987</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1012334.022248987</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1012334.022248987</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1045738.454390538</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1045738.454390538</v>
+        <v>1012185.432286501</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1045738.454390538</v>
+        <v>1047906.895815504</v>
       </c>
     </row>
     <row r="13">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908731</v>
       </c>
       <c r="C3" t="n">
-        <v>73895.50466563026</v>
+        <v>17370.29543921391</v>
       </c>
       <c r="D3" t="n">
-        <v>63540.91929575492</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>185041.8875582108</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131466.0563231697</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13837.70917736438</v>
+      </c>
+      <c r="L3" t="n">
         <v>28539.6810981117</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15966.32703294114</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7356.463848391494</v>
-      </c>
-      <c r="K3" t="n">
-        <v>94280.87641642685</v>
-      </c>
-      <c r="L3" t="n">
-        <v>45485.76424491327</v>
-      </c>
       <c r="M3" t="n">
-        <v>154442.653333656</v>
+        <v>145773.7708181578</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303732.4552423392</v>
+        <v>159602.3449167229</v>
       </c>
       <c r="C4" t="n">
-        <v>236572.5707559134</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>26224.19878966462</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>62223.82527887321</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>62223.82527887322</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>62223.82527887321</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>63198.41887740588</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>63198.41887740587</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
+        <v>41171.0087700796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>63198.41887740583</v>
+      </c>
+      <c r="N4" t="n">
         <v>63198.41887740587</v>
       </c>
-      <c r="M4" t="n">
-        <v>63198.41887740587</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>63198.41887740586</v>
       </c>
-      <c r="O4" t="n">
-        <v>63198.41887740584</v>
-      </c>
       <c r="P4" t="n">
-        <v>63198.41887740587</v>
+        <v>63198.41887740589</v>
       </c>
     </row>
     <row r="5">
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857545</v>
       </c>
       <c r="C5" t="n">
-        <v>49243.77033956515</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>65733.54204300197</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>68732.67010579842</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>68732.67010579842</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>68732.67010579842</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482544</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482544</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482542</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348491.9490990555</v>
+        <v>-392202.6257973623</v>
       </c>
       <c r="C6" t="n">
-        <v>-359711.8457611088</v>
+        <v>-241569.6222823774</v>
       </c>
       <c r="D6" t="n">
-        <v>-301732.2344210795</v>
+        <v>-224199.3268431635</v>
       </c>
       <c r="E6" t="n">
-        <v>-276999.6283908774</v>
+        <v>-322972.7364631661</v>
       </c>
       <c r="F6" t="n">
-        <v>-159496.1764827833</v>
+        <v>-107233.3799065255</v>
       </c>
       <c r="G6" t="n">
-        <v>-130956.4953846716</v>
+        <v>-107233.3799065255</v>
       </c>
       <c r="H6" t="n">
-        <v>-130956.4953846716</v>
+        <v>-107233.3799065255</v>
       </c>
       <c r="I6" t="n">
-        <v>-151547.9463751724</v>
+        <v>-107233.3799065255</v>
       </c>
       <c r="J6" t="n">
-        <v>-142938.0831906228</v>
+        <v>-238699.4362296952</v>
       </c>
       <c r="K6" t="n">
-        <v>-201463.225660768</v>
+        <v>-121071.0890838899</v>
       </c>
       <c r="L6" t="n">
-        <v>-181067.3835871445</v>
+        <v>-150459.8801194174</v>
       </c>
       <c r="M6" t="n">
-        <v>-290024.2726758872</v>
+        <v>-281355.3901603891</v>
       </c>
       <c r="N6" t="n">
         <v>-135581.6193422313</v>
       </c>
       <c r="O6" t="n">
-        <v>-135581.6193422312</v>
+        <v>-135581.6193422313</v>
       </c>
       <c r="P6" t="n">
         <v>-135581.6193422313</v>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="C4" t="n">
-        <v>256.8449069007427</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1081.143783602006</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="C4" t="n">
-        <v>228.728596767923</v>
+        <v>53.76623813902421</v>
       </c>
       <c r="D4" t="n">
-        <v>204.5549988595915</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>619.743877841672</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04161774715476</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="K4" t="n">
-        <v>366.3271129916184</v>
+        <v>53.76623813902421</v>
       </c>
       <c r="L4" t="n">
-        <v>66.95648263589607</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>619.7438778416717</v>
+        <v>584.957588233567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="K4" t="n">
-        <v>228.728596767923</v>
+        <v>53.76623813902421</v>
       </c>
       <c r="L4" t="n">
-        <v>204.5549988595915</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>619.743877841672</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>74.98430586542108</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>115.6962903803109</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27585,22 +27585,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>24.388431667003</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>164.8722635528783</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>162.8640785093685</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>97.06961382427033</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>150.7578919431875</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>356.8884342533123</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>130.5379920719716</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>66.39245920468255</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.53769711395609</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.04944581730871</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>244.9378573724095</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>98.65879175493154</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4027168294472</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>121.4413017959035</v>
       </c>
       <c r="F10" t="n">
-        <v>128.0487154283647</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.67460137263963</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>35.67460137263963</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.67460137263963</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.67460137263963</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263885</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30405,7 +30405,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="K40" t="n">
-        <v>35.6746013726393</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L40" t="n">
         <v>35.67460137263963</v>
@@ -30511,7 +30511,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263939</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U41" t="n">
         <v>35.67460137263963</v>
@@ -30639,13 +30639,13 @@
         <v>35.67460137263963</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263922</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K43" t="n">
         <v>35.67460137263963</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263924</v>
       </c>
       <c r="M43" t="n">
         <v>35.67460137263963</v>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>405.1854960287475</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,22 +34784,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>270.3524496761808</v>
       </c>
       <c r="N3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765699</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.99522820709154</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>127.7235622967707</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O5" t="n">
-        <v>256.8449069007427</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8449069007427</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.8449069007427</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>163.6195469404066</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O6" t="n">
-        <v>256.8449069007427</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>256.8449069007427</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.8449069007427</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>118.1843750655997</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>256.8449069007427</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>256.8449069007427</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>256.8449069007427</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9096973612265</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>131.7987152719994</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P12" t="n">
-        <v>376.8096622439955</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.7987152719994</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2114398442798</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937787</v>
       </c>
       <c r="L16" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>338.1597213074486</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P18" t="n">
-        <v>376.8096622439955</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968728</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
-        <v>131.7987152719994</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>376.8096622439955</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>661.2340031633184</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,7 +36376,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>369.5392623112385</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>989.7889970553474</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>369.5392623112385</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37087,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>650.8224749894214</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,13 +37321,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>416.6362429854053</v>
       </c>
       <c r="L38" t="n">
-        <v>3.273142294171413</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37701,7 +37701,7 @@
         <v>93.74665008391035</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664142</v>
+        <v>264.4903601664146</v>
       </c>
       <c r="L40" t="n">
         <v>393.9466430841758</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>369.5392623112385</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>925.0677636406595</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37868,13 +37868,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008390994</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
       </c>
       <c r="L43" t="n">
-        <v>393.9466430841758</v>
+        <v>393.9466430841754</v>
       </c>
       <c r="M43" t="n">
         <v>430.8117680092566</v>
@@ -38105,13 +38105,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
